--- a/jpcore-r4/feature/swg2-imagingstudyのIdentifierの必須項目/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-imagingstudyのIdentifierの必須項目/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -3132,7 +3132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>88</v>
@@ -3360,7 +3360,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -5876,7 +5876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>348</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -7362,7 +7362,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>416</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7932,7 +7932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>432</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -8048,7 +8048,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>440</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
